--- a/contratos/contratos-10-2012.xlsx
+++ b/contratos/contratos-10-2012.xlsx
@@ -604,13 +604,13 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>MAGRI HECTOR RAMON</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MOSCA OLGA RAQUEL</t>
@@ -700,7 +700,7 @@
     <t>TOME SARA EVA GRACIELA</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -736,7 +736,7 @@
     <t>SYLVESTRE CARLOS OMAR</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>CELESIA HECTOR M. Y REYNOSO ROBERTO M.</t>
@@ -1207,541 +1207,541 @@
     <t>52</t>
   </si>
   <si>
-    <t>8.997,85</t>
-  </si>
-  <si>
-    <t>15.499,87</t>
-  </si>
-  <si>
-    <t>19.800,00</t>
-  </si>
-  <si>
-    <t>348,00</t>
-  </si>
-  <si>
-    <t>76,50</t>
-  </si>
-  <si>
-    <t>2.906,00</t>
-  </si>
-  <si>
-    <t>59.100,00</t>
-  </si>
-  <si>
-    <t>122.081,29</t>
-  </si>
-  <si>
-    <t>5.033,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>8.077,70</t>
-  </si>
-  <si>
-    <t>3.288,25</t>
-  </si>
-  <si>
-    <t>9.843,85</t>
-  </si>
-  <si>
-    <t>749,50</t>
-  </si>
-  <si>
-    <t>12.926,77</t>
-  </si>
-  <si>
-    <t>14.715,00</t>
-  </si>
-  <si>
-    <t>5,90</t>
-  </si>
-  <si>
-    <t>178,40</t>
-  </si>
-  <si>
-    <t>5.726,99</t>
-  </si>
-  <si>
-    <t>114,00</t>
-  </si>
-  <si>
-    <t>22,20</t>
-  </si>
-  <si>
-    <t>260,80</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>527,72</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>10,60</t>
-  </si>
-  <si>
-    <t>958,00</t>
-  </si>
-  <si>
-    <t>443,00</t>
-  </si>
-  <si>
-    <t>50.190,00</t>
-  </si>
-  <si>
-    <t>557,00</t>
-  </si>
-  <si>
-    <t>9.431,80</t>
-  </si>
-  <si>
-    <t>3.269,71</t>
-  </si>
-  <si>
-    <t>1.132,00</t>
-  </si>
-  <si>
-    <t>1.489,33</t>
-  </si>
-  <si>
-    <t>724,33</t>
-  </si>
-  <si>
-    <t>1.359,08</t>
-  </si>
-  <si>
-    <t>270,80</t>
-  </si>
-  <si>
-    <t>3.585,23</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>87,02</t>
-  </si>
-  <si>
-    <t>109,80</t>
-  </si>
-  <si>
-    <t>47.383,24</t>
-  </si>
-  <si>
-    <t>1.185,72</t>
-  </si>
-  <si>
-    <t>4.602,00</t>
-  </si>
-  <si>
-    <t>23,50</t>
-  </si>
-  <si>
-    <t>3.715,92</t>
-  </si>
-  <si>
-    <t>518,76</t>
-  </si>
-  <si>
-    <t>598,04</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>18.900,00</t>
-  </si>
-  <si>
-    <t>648,08</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>207,20</t>
-  </si>
-  <si>
-    <t>707,40</t>
-  </si>
-  <si>
-    <t>2.521,17</t>
-  </si>
-  <si>
-    <t>5.814,24</t>
-  </si>
-  <si>
-    <t>376,75</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>108,30</t>
-  </si>
-  <si>
-    <t>1.486,00</t>
-  </si>
-  <si>
-    <t>2.417,94</t>
-  </si>
-  <si>
-    <t>3.105,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>6.240,00</t>
-  </si>
-  <si>
-    <t>134,70</t>
-  </si>
-  <si>
-    <t>152,50</t>
-  </si>
-  <si>
-    <t>17.148,00</t>
-  </si>
-  <si>
-    <t>1.692,00</t>
-  </si>
-  <si>
-    <t>1.651,00</t>
-  </si>
-  <si>
-    <t>16.197,00</t>
-  </si>
-  <si>
-    <t>2.909,80</t>
-  </si>
-  <si>
-    <t>332,00</t>
-  </si>
-  <si>
-    <t>1.443,00</t>
-  </si>
-  <si>
-    <t>241,32</t>
-  </si>
-  <si>
-    <t>41,00</t>
-  </si>
-  <si>
-    <t>86,20</t>
-  </si>
-  <si>
-    <t>939,38</t>
-  </si>
-  <si>
-    <t>350.940,00</t>
-  </si>
-  <si>
-    <t>808,00</t>
-  </si>
-  <si>
-    <t>154,00</t>
-  </si>
-  <si>
-    <t>117,00</t>
-  </si>
-  <si>
-    <t>15,92</t>
-  </si>
-  <si>
-    <t>7.142,60</t>
-  </si>
-  <si>
-    <t>3.899,00</t>
-  </si>
-  <si>
-    <t>6.011,41</t>
-  </si>
-  <si>
-    <t>4.440,28</t>
-  </si>
-  <si>
-    <t>12,50</t>
-  </si>
-  <si>
-    <t>309,10</t>
-  </si>
-  <si>
-    <t>17,00</t>
-  </si>
-  <si>
-    <t>2.725,00</t>
-  </si>
-  <si>
-    <t>21,20</t>
-  </si>
-  <si>
-    <t>3.523,35</t>
-  </si>
-  <si>
-    <t>1.860,00</t>
-  </si>
-  <si>
-    <t>1.164,00</t>
-  </si>
-  <si>
-    <t>54,30</t>
-  </si>
-  <si>
-    <t>20,97</t>
-  </si>
-  <si>
-    <t>4.430,30</t>
-  </si>
-  <si>
-    <t>48,97</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>485,23</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>10.138,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>5.270,26</t>
-  </si>
-  <si>
-    <t>364,00</t>
-  </si>
-  <si>
-    <t>199,50</t>
-  </si>
-  <si>
-    <t>116.000,00</t>
-  </si>
-  <si>
-    <t>4.680,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>18.827,20</t>
-  </si>
-  <si>
-    <t>773,50</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>18.453,48</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>9.360,00</t>
-  </si>
-  <si>
-    <t>258,38</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>4.565,00</t>
-  </si>
-  <si>
-    <t>38.059,00</t>
-  </si>
-  <si>
-    <t>6.210,00</t>
-  </si>
-  <si>
-    <t>6.828,00</t>
-  </si>
-  <si>
-    <t>595,36</t>
-  </si>
-  <si>
-    <t>3.041,00</t>
-  </si>
-  <si>
-    <t>1.421,00</t>
-  </si>
-  <si>
-    <t>534,96</t>
-  </si>
-  <si>
-    <t>279,00</t>
-  </si>
-  <si>
-    <t>365,15</t>
-  </si>
-  <si>
-    <t>17.751,81</t>
-  </si>
-  <si>
-    <t>8.156,38</t>
-  </si>
-  <si>
-    <t>4.391,42</t>
-  </si>
-  <si>
-    <t>50,26</t>
-  </si>
-  <si>
-    <t>6.329,05</t>
-  </si>
-  <si>
-    <t>870,00</t>
-  </si>
-  <si>
-    <t>999,16</t>
-  </si>
-  <si>
-    <t>610,00</t>
-  </si>
-  <si>
-    <t>357,70</t>
-  </si>
-  <si>
-    <t>1.940,09</t>
-  </si>
-  <si>
-    <t>12,00</t>
-  </si>
-  <si>
-    <t>440,00</t>
-  </si>
-  <si>
-    <t>306,00</t>
-  </si>
-  <si>
-    <t>603,00</t>
-  </si>
-  <si>
-    <t>48.814,96</t>
-  </si>
-  <si>
-    <t>6.142,09</t>
-  </si>
-  <si>
-    <t>270,84</t>
-  </si>
-  <si>
-    <t>3.740,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>2.014,30</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>508.045,18</t>
-  </si>
-  <si>
-    <t>4.317,00</t>
-  </si>
-  <si>
-    <t>16.300,00</t>
-  </si>
-  <si>
-    <t>1.250,00</t>
-  </si>
-  <si>
-    <t>96.025,68</t>
-  </si>
-  <si>
-    <t>215.600,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>247.554,50</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>232.175,00</t>
-  </si>
-  <si>
-    <t>223.000,00</t>
-  </si>
-  <si>
-    <t>230.884,00</t>
-  </si>
-  <si>
-    <t>226.724,00</t>
-  </si>
-  <si>
-    <t>193.000,00</t>
-  </si>
-  <si>
-    <t>104.973,05</t>
-  </si>
-  <si>
-    <t>77.440,00</t>
-  </si>
-  <si>
-    <t>29.442,98</t>
-  </si>
-  <si>
-    <t>9.350,00</t>
-  </si>
-  <si>
-    <t>25.019,80</t>
-  </si>
-  <si>
-    <t>12.769,00</t>
-  </si>
-  <si>
-    <t>55,00</t>
-  </si>
-  <si>
-    <t>33.500,00</t>
+    <t>8997.85</t>
+  </si>
+  <si>
+    <t>15499.87</t>
+  </si>
+  <si>
+    <t>19800.00</t>
+  </si>
+  <si>
+    <t>348.00</t>
+  </si>
+  <si>
+    <t>76.50</t>
+  </si>
+  <si>
+    <t>2906.00</t>
+  </si>
+  <si>
+    <t>59100.00</t>
+  </si>
+  <si>
+    <t>122081.29</t>
+  </si>
+  <si>
+    <t>5033.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>8077.70</t>
+  </si>
+  <si>
+    <t>3288.25</t>
+  </si>
+  <si>
+    <t>9843.85</t>
+  </si>
+  <si>
+    <t>749.50</t>
+  </si>
+  <si>
+    <t>12926.77</t>
+  </si>
+  <si>
+    <t>14715.00</t>
+  </si>
+  <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>178.40</t>
+  </si>
+  <si>
+    <t>5726.99</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>22.20</t>
+  </si>
+  <si>
+    <t>260.80</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>527.72</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>10.60</t>
+  </si>
+  <si>
+    <t>958.00</t>
+  </si>
+  <si>
+    <t>443.00</t>
+  </si>
+  <si>
+    <t>50190.00</t>
+  </si>
+  <si>
+    <t>557.00</t>
+  </si>
+  <si>
+    <t>9431.80</t>
+  </si>
+  <si>
+    <t>3269.71</t>
+  </si>
+  <si>
+    <t>1132.00</t>
+  </si>
+  <si>
+    <t>1489.33</t>
+  </si>
+  <si>
+    <t>724.33</t>
+  </si>
+  <si>
+    <t>1359.08</t>
+  </si>
+  <si>
+    <t>270.80</t>
+  </si>
+  <si>
+    <t>3585.23</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>87.02</t>
+  </si>
+  <si>
+    <t>109.80</t>
+  </si>
+  <si>
+    <t>47383.24</t>
+  </si>
+  <si>
+    <t>1185.72</t>
+  </si>
+  <si>
+    <t>4602.00</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>3715.92</t>
+  </si>
+  <si>
+    <t>518.76</t>
+  </si>
+  <si>
+    <t>598.04</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>18900.00</t>
+  </si>
+  <si>
+    <t>648.08</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>207.20</t>
+  </si>
+  <si>
+    <t>707.40</t>
+  </si>
+  <si>
+    <t>2521.17</t>
+  </si>
+  <si>
+    <t>5814.24</t>
+  </si>
+  <si>
+    <t>376.75</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>108.30</t>
+  </si>
+  <si>
+    <t>1486.00</t>
+  </si>
+  <si>
+    <t>2417.94</t>
+  </si>
+  <si>
+    <t>3105.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>6240.00</t>
+  </si>
+  <si>
+    <t>134.70</t>
+  </si>
+  <si>
+    <t>152.50</t>
+  </si>
+  <si>
+    <t>17148.00</t>
+  </si>
+  <si>
+    <t>1692.00</t>
+  </si>
+  <si>
+    <t>1651.00</t>
+  </si>
+  <si>
+    <t>16197.00</t>
+  </si>
+  <si>
+    <t>2909.80</t>
+  </si>
+  <si>
+    <t>332.00</t>
+  </si>
+  <si>
+    <t>1443.00</t>
+  </si>
+  <si>
+    <t>241.32</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>86.20</t>
+  </si>
+  <si>
+    <t>939.38</t>
+  </si>
+  <si>
+    <t>350940.00</t>
+  </si>
+  <si>
+    <t>808.00</t>
+  </si>
+  <si>
+    <t>154.00</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>15.92</t>
+  </si>
+  <si>
+    <t>7142.60</t>
+  </si>
+  <si>
+    <t>3899.00</t>
+  </si>
+  <si>
+    <t>6011.41</t>
+  </si>
+  <si>
+    <t>4440.28</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>309.10</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>2725.00</t>
+  </si>
+  <si>
+    <t>21.20</t>
+  </si>
+  <si>
+    <t>3523.35</t>
+  </si>
+  <si>
+    <t>1860.00</t>
+  </si>
+  <si>
+    <t>1164.00</t>
+  </si>
+  <si>
+    <t>54.30</t>
+  </si>
+  <si>
+    <t>20.97</t>
+  </si>
+  <si>
+    <t>4430.30</t>
+  </si>
+  <si>
+    <t>48.97</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>485.23</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>10138.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>5270.26</t>
+  </si>
+  <si>
+    <t>364.00</t>
+  </si>
+  <si>
+    <t>199.50</t>
+  </si>
+  <si>
+    <t>116000.00</t>
+  </si>
+  <si>
+    <t>4680.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>18827.20</t>
+  </si>
+  <si>
+    <t>773.50</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>18453.48</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>9360.00</t>
+  </si>
+  <si>
+    <t>258.38</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>4565.00</t>
+  </si>
+  <si>
+    <t>38059.00</t>
+  </si>
+  <si>
+    <t>6210.00</t>
+  </si>
+  <si>
+    <t>6828.00</t>
+  </si>
+  <si>
+    <t>595.36</t>
+  </si>
+  <si>
+    <t>3041.00</t>
+  </si>
+  <si>
+    <t>1421.00</t>
+  </si>
+  <si>
+    <t>534.96</t>
+  </si>
+  <si>
+    <t>279.00</t>
+  </si>
+  <si>
+    <t>365.15</t>
+  </si>
+  <si>
+    <t>17751.81</t>
+  </si>
+  <si>
+    <t>8156.38</t>
+  </si>
+  <si>
+    <t>4391.42</t>
+  </si>
+  <si>
+    <t>50.26</t>
+  </si>
+  <si>
+    <t>6329.05</t>
+  </si>
+  <si>
+    <t>870.00</t>
+  </si>
+  <si>
+    <t>999.16</t>
+  </si>
+  <si>
+    <t>610.00</t>
+  </si>
+  <si>
+    <t>357.70</t>
+  </si>
+  <si>
+    <t>1940.09</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>603.00</t>
+  </si>
+  <si>
+    <t>48814.96</t>
+  </si>
+  <si>
+    <t>6142.09</t>
+  </si>
+  <si>
+    <t>270.84</t>
+  </si>
+  <si>
+    <t>3740.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>2014.30</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>508045.18</t>
+  </si>
+  <si>
+    <t>4317.00</t>
+  </si>
+  <si>
+    <t>16300.00</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>96025.68</t>
+  </si>
+  <si>
+    <t>215600.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>247554.50</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>232175.00</t>
+  </si>
+  <si>
+    <t>223000.00</t>
+  </si>
+  <si>
+    <t>230884.00</t>
+  </si>
+  <si>
+    <t>226724.00</t>
+  </si>
+  <si>
+    <t>193000.00</t>
+  </si>
+  <si>
+    <t>104973.05</t>
+  </si>
+  <si>
+    <t>77440.00</t>
+  </si>
+  <si>
+    <t>29442.98</t>
+  </si>
+  <si>
+    <t>9350.00</t>
+  </si>
+  <si>
+    <t>25019.80</t>
+  </si>
+  <si>
+    <t>12769.00</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>33500.00</t>
   </si>
 </sst>
 </file>
